--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Udhayakumar\Desktop\Excel2json\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Udhayakumar\IdeaProjects\practisetask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616A4598-628E-4D78-A974-0E7852FB5014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7802957C-0919-4506-A8FF-345240F0E0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -42,13 +42,43 @@
     <t>Abi</t>
   </si>
   <si>
-    <t>sky</t>
-  </si>
-  <si>
     <t>Atom</t>
   </si>
   <si>
     <t>RollNo</t>
+  </si>
+  <si>
+    <t>Agni</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Browny</t>
+  </si>
+  <si>
+    <t>Carry</t>
+  </si>
+  <si>
+    <t>Caffy</t>
+  </si>
+  <si>
+    <t>Disel</t>
+  </si>
+  <si>
+    <t>Fero</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Tonny</t>
+  </si>
+  <si>
+    <t>Steve</t>
   </si>
 </sst>
 </file>
@@ -369,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -384,7 +414,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -429,7 +459,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>19</v>
@@ -443,13 +473,153 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>19</v>
       </c>
       <c r="D5" s="1">
         <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
